--- a/data/case1/11/Q2_14.xlsx
+++ b/data/case1/11/Q2_14.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.25011091601324864</v>
+        <v>0.24711565198759189</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999253932401</v>
+        <v>-0.0059999999422117867</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999214668236</v>
+        <v>-0.0039999999475881509</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999998643494052</v>
+        <v>-0.0079999999045998749</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.026531464038176189</v>
+        <v>-0.0029999999436389757</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999998983006861</v>
+        <v>-0.0019999999362347864</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999998031363724</v>
+        <v>-0.0099999998627082753</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999998049082883</v>
+        <v>-0.0099999998627926523</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999047879413</v>
+        <v>-0.001999999937397412</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999103514909</v>
+        <v>-0.0019999999392403822</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.048696961096504232</v>
+        <v>0.047267379633091799</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999998916513952</v>
+        <v>-0.0034999999239953006</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999998847249358</v>
+        <v>-0.01121251193353956</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999998294253416</v>
+        <v>-0.0079999998743218725</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999991174470892</v>
+        <v>-0.00099999993738908444</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0016323412424137373</v>
+        <v>-0.0019999999273072611</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.001999999897105198</v>
+        <v>-0.0019999999259354695</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999998728879049</v>
+        <v>-0.0039999999072559689</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.003999999948823163</v>
+        <v>-0.0039999999589217516</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999443658396</v>
+        <v>-0.0039999999420121668</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999437458911</v>
+        <v>-0.055993854520801634</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999432893674</v>
+        <v>-0.0039999999380118112</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.004999999900810792</v>
+        <v>-0.0049999999355083702</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.064460699185416637</v>
+        <v>-0.019999999792929657</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999700972992</v>
+        <v>-0.019999999790274892</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999998890073982</v>
+        <v>-0.0024999999289789798</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999998841650495</v>
+        <v>-0.002499999925241525</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999998609590008</v>
+        <v>-0.0019999999141315783</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999997833098959</v>
+        <v>-0.0069999998555649867</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999144796146</v>
+        <v>-0.059999999364644285</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999997673644287</v>
+        <v>-0.0069999998451528711</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999997307271826</v>
+        <v>-0.0099999998170208215</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.00399999980171728</v>
+        <v>-0.0039999998716755414</v>
       </c>
     </row>
   </sheetData>
